--- a/Data/MovesPokemon.xlsx
+++ b/Data/MovesPokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11475"/>
+    <workbookView windowWidth="19470" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="512">
   <si>
     <t>ID</t>
   </si>
@@ -197,7 +197,10 @@
     <t>PULSO D'ÁGUA</t>
   </si>
   <si>
-    <t>SKULL SMASH</t>
+    <t>SKULL BASH</t>
+  </si>
+  <si>
+    <t>B.TWODICES;RECHARGE</t>
   </si>
   <si>
     <t>QUEBRA-CRÂNIO</t>
@@ -752,397 +755,814 @@
     <t>PISOTEAR</t>
   </si>
   <si>
+    <t>THUNDERBOLT</t>
+  </si>
+  <si>
+    <t>RELÂMPAGO</t>
+  </si>
+  <si>
+    <t>SWORD DANCE</t>
+  </si>
+  <si>
+    <t>W.THREEDICES</t>
+  </si>
+  <si>
+    <t>DANÇA DAS ESPADAS</t>
+  </si>
+  <si>
+    <t>TRI ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE TRIPLO</t>
+  </si>
+  <si>
+    <t>AURORA BEAM</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>RAIO AURORA</t>
+  </si>
+  <si>
+    <t>ICE BEAM</t>
+  </si>
+  <si>
+    <t>B.FREEZE</t>
+  </si>
+  <si>
+    <t>RAIO DE GELO</t>
+  </si>
+  <si>
+    <t>HEADBUTT</t>
+  </si>
+  <si>
+    <t>CABEÇADA</t>
+  </si>
+  <si>
+    <t>TOXIC</t>
+  </si>
+  <si>
+    <t>TÓXICO</t>
+  </si>
+  <si>
+    <t>ACID ARMOR</t>
+  </si>
+  <si>
+    <t>ARMADURA ÁCIDA</t>
+  </si>
+  <si>
+    <t>GUNK SHOT</t>
+  </si>
+  <si>
+    <t>TIRO DE SUJEIRA</t>
+  </si>
+  <si>
+    <t>CLAMP</t>
+  </si>
+  <si>
+    <t>PRENDER</t>
+  </si>
+  <si>
+    <t>LICK</t>
+  </si>
+  <si>
+    <t>LAMBIDA</t>
+  </si>
+  <si>
+    <t>SHADOW PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO SOMBRIO</t>
+  </si>
+  <si>
+    <t>DARK PULSE</t>
+  </si>
+  <si>
+    <t>PULSO SOMBRIO</t>
+  </si>
+  <si>
+    <t>SHADOW BALL</t>
+  </si>
+  <si>
+    <t>BOLA SOMBRIA</t>
+  </si>
+  <si>
+    <t>FISSURE</t>
+  </si>
+  <si>
+    <t>FISSURA</t>
+  </si>
+  <si>
+    <t>ROCK SLIDE</t>
+  </si>
+  <si>
+    <t>DESLIZE DE PEDRA</t>
+  </si>
+  <si>
+    <t>PSYCHIC</t>
+  </si>
+  <si>
+    <t>PSÍQUICO</t>
+  </si>
+  <si>
+    <t>VISE GRIP</t>
+  </si>
+  <si>
+    <t>APERTO COM GARRA</t>
+  </si>
+  <si>
+    <t>CRABHAMMER</t>
+  </si>
+  <si>
+    <t>GARRA MARTELO</t>
+  </si>
+  <si>
+    <t>GUILLOTINE</t>
+  </si>
+  <si>
+    <t>GUILHOTINA</t>
+  </si>
+  <si>
+    <t>EXPLOSION</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO</t>
+  </si>
+  <si>
+    <t>LIGHT SCREEN</t>
+  </si>
+  <si>
+    <t>TELA DE LUZ</t>
+  </si>
+  <si>
+    <t>BARRAGE</t>
+  </si>
+  <si>
+    <t>BARRAGEM</t>
+  </si>
+  <si>
+    <t>BONE CLUB</t>
+  </si>
+  <si>
+    <t>CLAVA DE OSSO</t>
+  </si>
+  <si>
+    <t>BONEMERANG</t>
+  </si>
+  <si>
+    <t>OSSO BUMERANGUE</t>
+  </si>
+  <si>
+    <t>RAGE</t>
+  </si>
+  <si>
+    <t>W.FURY</t>
+  </si>
+  <si>
+    <t>FÚRIA</t>
+  </si>
+  <si>
+    <t>MEGA PUNCH</t>
+  </si>
+  <si>
+    <t>MEGA SOCO</t>
+  </si>
+  <si>
+    <t>MEGA KICK</t>
+  </si>
+  <si>
+    <t>MEGA CHUTE</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CONTRA-ATAQUE</t>
+  </si>
+  <si>
+    <t>SMOG</t>
+  </si>
+  <si>
+    <t>POLUIÇÃO</t>
+  </si>
+  <si>
+    <t>POISON GAS</t>
+  </si>
+  <si>
+    <t>GÁS VENENOSO</t>
+  </si>
+  <si>
+    <t>SLUDGE BOMB</t>
+  </si>
+  <si>
+    <t>BOMBA DE LODO</t>
+  </si>
+  <si>
+    <t>DRILL RUN</t>
+  </si>
+  <si>
+    <t>BROCA VELOZ</t>
+  </si>
+  <si>
+    <t>STONE EDGE</t>
+  </si>
+  <si>
+    <t>GUME DE PEDRA</t>
+  </si>
+  <si>
+    <t>DIZZY PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO ATORDOANTE</t>
+  </si>
+  <si>
+    <t>TWISTER</t>
+  </si>
+  <si>
+    <t>TORNADO</t>
+  </si>
+  <si>
+    <t>DRAGON PULSE</t>
+  </si>
+  <si>
+    <t>PULSO DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>SCALD</t>
+  </si>
+  <si>
+    <t>ESCALDAR</t>
+  </si>
+  <si>
+    <t>MEGA HORN</t>
+  </si>
+  <si>
+    <t>MEGA CHIFRE</t>
+  </si>
+  <si>
+    <t>WATERFALL</t>
+  </si>
+  <si>
+    <t>CACHOEIRA</t>
+  </si>
+  <si>
+    <t>BARRIER</t>
+  </si>
+  <si>
+    <t>BARREIRA</t>
+  </si>
+  <si>
+    <t>FURY CUTTER</t>
+  </si>
+  <si>
+    <t>BOOST</t>
+  </si>
+  <si>
+    <t>FÚRIA CORTANTE</t>
+  </si>
+  <si>
+    <t>ICE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE GELO</t>
+  </si>
+  <si>
+    <t>X-SCISSOR</t>
+  </si>
+  <si>
+    <t>TESOURA X</t>
+  </si>
+  <si>
+    <t>FIRE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE FOGO</t>
+  </si>
+  <si>
+    <t>SCREECH</t>
+  </si>
+  <si>
+    <t>RUÍDO</t>
+  </si>
+  <si>
+    <t>LOVELY KISS</t>
+  </si>
+  <si>
+    <t>BEIJO ADORÁVEL</t>
+  </si>
+  <si>
+    <t>SPLASH</t>
+  </si>
+  <si>
+    <t>RESPINGO</t>
+  </si>
+  <si>
+    <t>HURRICANE</t>
+  </si>
+  <si>
+    <t>FURAÇÃO</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>TRANSFORMAR</t>
+  </si>
+  <si>
+    <t>THUNDER WAVE</t>
+  </si>
+  <si>
+    <t>ONDA TROVÃO</t>
+  </si>
+  <si>
+    <t>CONVERSION</t>
+  </si>
+  <si>
+    <t>CONVERSÃO</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>CORTE</t>
+  </si>
+  <si>
+    <t>ROLLOUT</t>
+  </si>
+  <si>
+    <t>ROLAGEM</t>
+  </si>
+  <si>
+    <t>CRUNCH</t>
+  </si>
+  <si>
+    <t>MASTIGADA</t>
+  </si>
+  <si>
+    <t>AQUA JET</t>
+  </si>
+  <si>
+    <t>AQUA JATO</t>
+  </si>
+  <si>
+    <t>ANCIENT POWER</t>
+  </si>
+  <si>
+    <t>W.TWODICES;B.TWODICES</t>
+  </si>
+  <si>
+    <t>PODER ANTIGO</t>
+  </si>
+  <si>
+    <t>AURA SPHERE</t>
+  </si>
+  <si>
+    <t>AURA ESFÉRICA</t>
+  </si>
+  <si>
+    <t>BLIZZARD</t>
+  </si>
+  <si>
+    <t>NEVASCA</t>
+  </si>
+  <si>
+    <t>SKY ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE DO CÉU</t>
+  </si>
+  <si>
+    <t>DRAGON RAGE</t>
+  </si>
+  <si>
+    <t>W.IMMUNE.TYPE</t>
+  </si>
+  <si>
+    <t>FÚRIA DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>DREAM EATER</t>
+  </si>
+  <si>
+    <t>B.SLEEP;ESPECIAL</t>
+  </si>
+  <si>
+    <t>DEVORAR DE SONHOS</t>
+  </si>
+  <si>
+    <t>FLY</t>
+  </si>
+  <si>
+    <t>VOO</t>
+  </si>
+  <si>
+    <t>SURF</t>
+  </si>
+  <si>
+    <t>SURFAR</t>
+  </si>
+  <si>
+    <t>STRENGHT</t>
+  </si>
+  <si>
+    <t>FORÇA</t>
+  </si>
+  <si>
+    <t>ROCK SMASH</t>
+  </si>
+  <si>
+    <t>ESMAGAR PEDRA</t>
+  </si>
+  <si>
+    <t>DIVE</t>
+  </si>
+  <si>
+    <t>MERGULHO</t>
+  </si>
+  <si>
+    <t>HONE CLAWS</t>
+  </si>
+  <si>
+    <t>GARRAS AFIADAS</t>
+  </si>
+  <si>
+    <t>DRAGON CLAW</t>
+  </si>
+  <si>
+    <t>GARRA DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>SAFEGUARD</t>
+  </si>
+  <si>
+    <t>SALVAGUARDA</t>
+  </si>
+  <si>
+    <t>FRUSTRATION</t>
+  </si>
+  <si>
+    <t>FRUSTRAÇÃO</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>RETORNO</t>
+  </si>
+  <si>
+    <t>BRICK BREAK</t>
+  </si>
+  <si>
+    <t>QUEBRA-TELHA</t>
+  </si>
+  <si>
+    <t>DOUBLE TEAM</t>
+  </si>
+  <si>
+    <t>TIME DUPLO</t>
+  </si>
+  <si>
+    <t>CALM MIND</t>
+  </si>
+  <si>
+    <t>MENTE CALMA</t>
+  </si>
+  <si>
+    <t>HAIL</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>GRANIZO</t>
+  </si>
+  <si>
+    <t>BULK UP</t>
+  </si>
+  <si>
+    <t>FORÇA BRUTA</t>
+  </si>
+  <si>
+    <t>HIDDEN POWER</t>
+  </si>
+  <si>
+    <t>PODER OCULTO</t>
+  </si>
+  <si>
+    <t>SUNNY DAY</t>
+  </si>
+  <si>
+    <t>SUNNYDAY</t>
+  </si>
+  <si>
+    <t>DIA ENSOLARADO</t>
+  </si>
+  <si>
+    <t>TORMENT</t>
+  </si>
+  <si>
+    <t>TORMENTO</t>
+  </si>
+  <si>
+    <t>TAUNT</t>
+  </si>
+  <si>
+    <t>INSULTO</t>
+  </si>
+  <si>
+    <t>PROTECT</t>
+  </si>
+  <si>
+    <t>PROTEÇÃO</t>
+  </si>
+  <si>
+    <t>ROOST</t>
+  </si>
+  <si>
+    <t>POLEIRO</t>
+  </si>
+  <si>
     <t>THUNDER</t>
   </si>
   <si>
-    <t>RELÂMPAGO</t>
-  </si>
-  <si>
-    <t>SWORD DANCE</t>
-  </si>
-  <si>
-    <t>W.THREEDICES</t>
-  </si>
-  <si>
-    <t>DANÇA DAS ESPADAS</t>
-  </si>
-  <si>
-    <t>TRI ATTACK</t>
-  </si>
-  <si>
-    <t>ATAQUE TRIPLO</t>
-  </si>
-  <si>
-    <t>AURORA BEAM</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>RAIO AURORA</t>
-  </si>
-  <si>
-    <t>ICE BEAM</t>
-  </si>
-  <si>
-    <t>B.FREEZE</t>
-  </si>
-  <si>
-    <t>RAIO DE GELO</t>
-  </si>
-  <si>
-    <t>HEADBUTT</t>
-  </si>
-  <si>
-    <t>CABEÇADA</t>
-  </si>
-  <si>
-    <t>TOXIC</t>
-  </si>
-  <si>
-    <t>TÓXICO</t>
-  </si>
-  <si>
-    <t>ACID ARMOR</t>
-  </si>
-  <si>
-    <t>ARMADURA ÁCIDA</t>
-  </si>
-  <si>
-    <t>GUNK SHOT</t>
-  </si>
-  <si>
-    <t>TIRO DE SUJEIRA</t>
-  </si>
-  <si>
-    <t>CLAMP</t>
-  </si>
-  <si>
-    <t>PRENDER</t>
-  </si>
-  <si>
-    <t>LICK</t>
-  </si>
-  <si>
-    <t>LAMBIDA</t>
-  </si>
-  <si>
-    <t>SHADOW PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO SOMBRIO</t>
-  </si>
-  <si>
-    <t>DARK PULSE</t>
-  </si>
-  <si>
-    <t>PULSO SOMBRIO</t>
-  </si>
-  <si>
-    <t>SHADOW BALL</t>
-  </si>
-  <si>
-    <t>BOLA SOMBRIA</t>
-  </si>
-  <si>
-    <t>FISSURE</t>
-  </si>
-  <si>
-    <t>FISSURA</t>
-  </si>
-  <si>
-    <t>ROCK SLIDE</t>
-  </si>
-  <si>
-    <t>DESLIZE DE PEDRA</t>
-  </si>
-  <si>
-    <t>PSYCHIC</t>
-  </si>
-  <si>
-    <t>PSÍQUICO</t>
-  </si>
-  <si>
-    <t>VISE GRIP</t>
-  </si>
-  <si>
-    <t>APERTO COM GARRA</t>
-  </si>
-  <si>
-    <t>CRABHAMMER</t>
-  </si>
-  <si>
-    <t>GARRA MARTELO</t>
-  </si>
-  <si>
-    <t>GUILLOTINE</t>
-  </si>
-  <si>
-    <t>GUILHOTINA</t>
-  </si>
-  <si>
-    <t>EXPLOSION</t>
-  </si>
-  <si>
-    <t>EXPLOSÃO</t>
-  </si>
-  <si>
-    <t>LIGHT SCREEN</t>
-  </si>
-  <si>
-    <t>TELA DE LUZ</t>
-  </si>
-  <si>
-    <t>BARRAGE</t>
-  </si>
-  <si>
-    <t>BARRAGEM</t>
-  </si>
-  <si>
-    <t>BONE CLUB</t>
-  </si>
-  <si>
-    <t>CLAVA DE OSSO</t>
-  </si>
-  <si>
-    <t>BONEMERANG</t>
-  </si>
-  <si>
-    <t>OSSO BUMERANGUE</t>
-  </si>
-  <si>
-    <t>RAGE</t>
-  </si>
-  <si>
-    <t>W.FURY</t>
-  </si>
-  <si>
-    <t>FÚRIA</t>
-  </si>
-  <si>
-    <t>MEGA PUNCH</t>
-  </si>
-  <si>
-    <t>MEGA SOCO</t>
-  </si>
-  <si>
-    <t>MEGA KICK</t>
-  </si>
-  <si>
-    <t>MEGA CHUTE</t>
-  </si>
-  <si>
-    <t>COUNTER</t>
-  </si>
-  <si>
-    <t>CONTRA-ATAQUE</t>
-  </si>
-  <si>
-    <t>SMOG</t>
-  </si>
-  <si>
-    <t>POLUIÇÃO</t>
-  </si>
-  <si>
-    <t>POISON GAS</t>
-  </si>
-  <si>
-    <t>GÁS VENENOSO</t>
-  </si>
-  <si>
-    <t>SLUDGE BOMB</t>
-  </si>
-  <si>
-    <t>BOMBA DE LODO</t>
-  </si>
-  <si>
-    <t>DRILL RUN</t>
-  </si>
-  <si>
-    <t>BROCA VELOZ</t>
-  </si>
-  <si>
-    <t>STONE EDGE</t>
-  </si>
-  <si>
-    <t>GUME DE PEDRA</t>
-  </si>
-  <si>
-    <t>DIZZY PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO ATORDOANTE</t>
-  </si>
-  <si>
-    <t>TWISTER</t>
-  </si>
-  <si>
-    <t>TORNADO</t>
-  </si>
-  <si>
-    <t>DRAGON PULSE</t>
-  </si>
-  <si>
-    <t>PULSO DO DRAGÃO</t>
-  </si>
-  <si>
-    <t>SCALD</t>
-  </si>
-  <si>
-    <t>ESCALDAR</t>
-  </si>
-  <si>
-    <t>MEGA HORN</t>
-  </si>
-  <si>
-    <t>MEGA CHIFRE</t>
-  </si>
-  <si>
-    <t>WATERFALL</t>
-  </si>
-  <si>
-    <t>CACHOEIRA</t>
-  </si>
-  <si>
-    <t>BARRIER</t>
-  </si>
-  <si>
-    <t>BARREIRA</t>
-  </si>
-  <si>
-    <t>FURY CUTTER</t>
-  </si>
-  <si>
-    <t>BOOST</t>
-  </si>
-  <si>
-    <t>FÚRIA CORTANTE</t>
-  </si>
-  <si>
-    <t>ICE PUNCH</t>
-  </si>
-  <si>
-    <t>PUNHO DE GELO</t>
-  </si>
-  <si>
-    <t>X-SCISSOR</t>
-  </si>
-  <si>
-    <t>TESOURA X</t>
-  </si>
-  <si>
-    <t>FIRE PUNCH</t>
-  </si>
-  <si>
-    <t>PUNHO DE FOGO</t>
-  </si>
-  <si>
-    <t>SCREECH</t>
-  </si>
-  <si>
-    <t>RUÍDO</t>
-  </si>
-  <si>
-    <t>LOVELY KISS</t>
-  </si>
-  <si>
-    <t>BEIJO ADORÁVEL</t>
-  </si>
-  <si>
-    <t>SPLASH</t>
-  </si>
-  <si>
-    <t>RESPINGO</t>
-  </si>
-  <si>
-    <t>HURRICANE</t>
-  </si>
-  <si>
-    <t>FURAÇÃO</t>
-  </si>
-  <si>
-    <t>TRANSFORM</t>
-  </si>
-  <si>
-    <t>TRANSFORMAR</t>
-  </si>
-  <si>
-    <t>THUNDER WAVE</t>
-  </si>
-  <si>
-    <t>ONDA TROVÃO</t>
-  </si>
-  <si>
-    <t>CONVERSION</t>
-  </si>
-  <si>
-    <t>CONVERSÃO</t>
-  </si>
-  <si>
-    <t>ROLLOUT</t>
-  </si>
-  <si>
-    <t>ROLAGEM</t>
-  </si>
-  <si>
-    <t>CRUNCH</t>
-  </si>
-  <si>
-    <t>MASTIGADA</t>
-  </si>
-  <si>
-    <t>AQUA JET</t>
-  </si>
-  <si>
-    <t>AQUA JATO</t>
-  </si>
-  <si>
-    <t>ANCIENT POWER</t>
-  </si>
-  <si>
-    <t>W.TWODICES;B.TWODICES</t>
-  </si>
-  <si>
-    <t>PODER ANTIGO</t>
-  </si>
-  <si>
-    <t>AURA SPHERE</t>
-  </si>
-  <si>
-    <t>AURA ESFÉRICA</t>
-  </si>
-  <si>
-    <t>BLIZZARD</t>
-  </si>
-  <si>
-    <t>NEVASCA</t>
-  </si>
-  <si>
-    <t>SKY ATTACK</t>
-  </si>
-  <si>
-    <t>B.TWODICES;RECHARGE</t>
-  </si>
-  <si>
-    <t>ATAQUE DO CÉU</t>
-  </si>
-  <si>
-    <t>DRAGON RAGE</t>
-  </si>
-  <si>
-    <t>W.IMMUNE.TYPE</t>
-  </si>
-  <si>
-    <t>FÚRIA DO DRAGÃO</t>
-  </si>
-  <si>
-    <t>DREAM EATER</t>
-  </si>
-  <si>
-    <t>B.SLEEP;ESPECIAL</t>
-  </si>
-  <si>
-    <t>DEVORAR DE SONHOS</t>
+    <t>TROVÃO</t>
+  </si>
+  <si>
+    <t>STEEL WING</t>
+  </si>
+  <si>
+    <t>ASA DE AÇO</t>
+  </si>
+  <si>
+    <t>REFLECT</t>
+  </si>
+  <si>
+    <t>REFLETIR</t>
+  </si>
+  <si>
+    <t>SAND STORM</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>TEMPESTADE DE AREIA</t>
+  </si>
+  <si>
+    <t>SAND TOMB</t>
+  </si>
+  <si>
+    <t>TUMBA DE ROCHA</t>
+  </si>
+  <si>
+    <t>AERIAL ACE</t>
+  </si>
+  <si>
+    <t>GOLPE AÉREO</t>
+  </si>
+  <si>
+    <t>FACADE</t>
+  </si>
+  <si>
+    <t>FACHADA</t>
+  </si>
+  <si>
+    <t>FLAME CHARGE</t>
+  </si>
+  <si>
+    <t>ATAQUE DE CHAMAS</t>
+  </si>
+  <si>
+    <t>THIEF</t>
+  </si>
+  <si>
+    <t>ROUBAR</t>
+  </si>
+  <si>
+    <t>ATTRACT</t>
+  </si>
+  <si>
+    <t>ATRAÇÃO</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>ROTAÇÃO</t>
+  </si>
+  <si>
+    <t>ECHOED VOICE</t>
+  </si>
+  <si>
+    <t>VOZ ECOANTE</t>
+  </si>
+  <si>
+    <t>OVERHEAT</t>
+  </si>
+  <si>
+    <t>NERF</t>
+  </si>
+  <si>
+    <t>SUPERAQUECER</t>
+  </si>
+  <si>
+    <t>FOCUS BLAST</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO FOCADA</t>
+  </si>
+  <si>
+    <t>ENERGY BALL</t>
+  </si>
+  <si>
+    <t>BOLA DE ENERGIA</t>
+  </si>
+  <si>
+    <t>FALSE SWIPE</t>
+  </si>
+  <si>
+    <t>CORTE ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>CHARGE BEAM</t>
+  </si>
+  <si>
+    <t>RAIO CARREGADO</t>
+  </si>
+  <si>
+    <t>SKY DROP</t>
+  </si>
+  <si>
+    <t>QUEDA LIVRE</t>
+  </si>
+  <si>
+    <t>INCINERATE</t>
+  </si>
+  <si>
+    <t>INCINERAR</t>
+  </si>
+  <si>
+    <t>QUASH</t>
+  </si>
+  <si>
+    <t>ÚLTIMO LUGAR</t>
+  </si>
+  <si>
+    <t>WILL-O-WISP</t>
+  </si>
+  <si>
+    <t>FOGO FÁTUO</t>
+  </si>
+  <si>
+    <t>ACROBATICS</t>
+  </si>
+  <si>
+    <t>EMBARGO</t>
+  </si>
+  <si>
+    <t>SHADOW CLAW</t>
+  </si>
+  <si>
+    <t>GARRA SOMBRIA</t>
+  </si>
+  <si>
+    <t>PAYBACK</t>
+  </si>
+  <si>
+    <t>RETRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>RETALIATE</t>
+  </si>
+  <si>
+    <t>RETALIAÇÃO</t>
+  </si>
+  <si>
+    <t>GIGA IMPACT</t>
+  </si>
+  <si>
+    <t>GIGA IMPACTO</t>
+  </si>
+  <si>
+    <t>ROCK POLISH</t>
+  </si>
+  <si>
+    <t>POLIDOR DE ROCHA</t>
+  </si>
+  <si>
+    <t>VOLT SWITCH</t>
+  </si>
+  <si>
+    <t>W.CHANGE</t>
+  </si>
+  <si>
+    <t>TROCA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>GYRO BALL</t>
+  </si>
+  <si>
+    <t>GIROBOLA</t>
+  </si>
+  <si>
+    <t>STRUGGLE BUG</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>IRA DE INSETO</t>
+  </si>
+  <si>
+    <t>FROST BREATH</t>
+  </si>
+  <si>
+    <t>SOPRO DE GELO</t>
+  </si>
+  <si>
+    <t>DRAGON TAIL</t>
+  </si>
+  <si>
+    <t>CAUDA DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>INFESTATION</t>
+  </si>
+  <si>
+    <t>INFESTAÇÃO</t>
+  </si>
+  <si>
+    <t>POISON JAB</t>
+  </si>
+  <si>
+    <t>GOLPE VENENO</t>
+  </si>
+  <si>
+    <t>GRASS KNOT</t>
+  </si>
+  <si>
+    <t>NÓ DE GRAMA</t>
+  </si>
+  <si>
+    <t>SWAGGER</t>
+  </si>
+  <si>
+    <t>ARROGÂNCIA</t>
+  </si>
+  <si>
+    <t>SLEEP TALK</t>
+  </si>
+  <si>
+    <t>SONAMBULISMO</t>
+  </si>
+  <si>
+    <t>U-TURN</t>
+  </si>
+  <si>
+    <t>IDA E VOLTA</t>
+  </si>
+  <si>
+    <t>FLASH CANNON</t>
+  </si>
+  <si>
+    <t>CANHÃO DE LUZ</t>
+  </si>
+  <si>
+    <t>WILD CHARGE</t>
+  </si>
+  <si>
+    <t>ATAQUE SELVAGEM</t>
+  </si>
+  <si>
+    <t>SNARL</t>
+  </si>
+  <si>
+    <t>GRUNHIDO</t>
+  </si>
+  <si>
+    <t>NATURE POWER</t>
+  </si>
+  <si>
+    <t>PODER DA NATUREZA</t>
+  </si>
+  <si>
+    <t>BUBBLE BEAM</t>
+  </si>
+  <si>
+    <t>CANHÃO DE BOLHAS</t>
+  </si>
+  <si>
+    <t>POWER-UP PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO POTENCIAL</t>
+  </si>
+  <si>
+    <t>DAZZLING GLEAM</t>
+  </si>
+  <si>
+    <t>CLARÃO MÁGICO</t>
   </si>
 </sst>
 </file>
@@ -1844,9 +2264,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J158" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J158" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:J158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J225" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J225" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MIRROR MOVE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:J225">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="10">
@@ -2123,12 +2549,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
+      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2176,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2193,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" hidden="1" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2210,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2233,7 +2659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" hidden="1" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2253,7 +2679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" hidden="1" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2276,7 +2702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2296,7 +2722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2319,7 +2745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" hidden="1" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2339,7 +2765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2362,7 +2788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" hidden="1" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2382,7 +2808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2405,7 +2831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" hidden="1" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2422,7 +2848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2442,7 +2868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2459,7 +2885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" hidden="1" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2479,7 +2905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" hidden="1" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2502,7 +2928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" hidden="1" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2516,18 +2942,21 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2536,32 +2965,32 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2576,15 +3005,15 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2596,15 +3025,15 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2613,64 +3042,64 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2679,15 +3108,15 @@
         <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2696,18 +3125,18 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2716,18 +3145,18 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2742,15 +3171,15 @@
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2759,24 +3188,24 @@
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>54</v>
@@ -2785,81 +3214,81 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G33" s="1">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2871,15 +3300,15 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2888,10 +3317,10 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2899,7 +3328,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2908,18 +3337,18 @@
         <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2928,15 +3357,15 @@
         <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2945,15 +3374,15 @@
         <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2965,15 +3394,15 @@
         <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2988,21 +3417,21 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
         <v>33</v>
@@ -3011,15 +3440,15 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3031,21 +3460,21 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3054,15 +3483,15 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -3071,15 +3500,15 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3088,21 +3517,21 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3111,21 +3540,21 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G47" s="1">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3134,58 +3563,58 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3194,21 +3623,21 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" s="1">
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3217,21 +3646,21 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G52" s="1">
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3240,15 +3669,15 @@
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3260,21 +3689,21 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3283,18 +3712,18 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3306,47 +3735,47 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G56" s="1">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
         <v>33</v>
@@ -3355,15 +3784,15 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -3378,21 +3807,21 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F60" t="s">
         <v>33</v>
@@ -3401,15 +3830,15 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -3424,18 +3853,18 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
@@ -3444,15 +3873,15 @@
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3461,15 +3890,15 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3478,21 +3907,21 @@
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3501,21 +3930,21 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G65" s="1">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3530,15 +3959,15 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3547,41 +3976,41 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G68" s="1">
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3590,63 +4019,63 @@
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:10">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" hidden="1" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3655,21 +4084,21 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G72" s="1">
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3681,21 +4110,21 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G73" s="1">
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3704,18 +4133,18 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3724,21 +4153,21 @@
         <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
@@ -3747,21 +4176,21 @@
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
         <v>33</v>
@@ -3770,35 +4199,35 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="1:10">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3808,168 +4237,168 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" hidden="1" spans="1:10">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G80" s="3">
         <v>4</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" hidden="1" spans="1:10">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" hidden="1" spans="1:8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:8">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:8">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E84">
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:8">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:8">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E86">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:8">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -3978,21 +4407,21 @@
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:10">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -4002,41 +4431,41 @@
         <v>6</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" hidden="1" spans="1:10">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" hidden="1" spans="1:10">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2">
         <v>4</v>
@@ -4050,69 +4479,69 @@
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" hidden="1" spans="1:10">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G91" s="3">
         <v>4</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" hidden="1" spans="1:10">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" hidden="1" spans="1:10">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -4128,37 +4557,37 @@
         <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" hidden="1" spans="1:8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E94">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:8">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -4170,15 +4599,15 @@
         <v>26</v>
       </c>
       <c r="H95" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="1:10">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -4194,43 +4623,43 @@
         <v>5</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" hidden="1" spans="1:10">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G97" s="3">
         <v>6</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" hidden="1" spans="1:8">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4239,18 +4668,18 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:8">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -4259,27 +4688,27 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G99" s="1">
         <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:8">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F100" t="s">
         <v>33</v>
@@ -4288,38 +4717,38 @@
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:8">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G101" s="1">
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="1:8">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -4334,15 +4763,15 @@
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4357,15 +4786,15 @@
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4374,18 +4803,18 @@
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H104" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -4400,15 +4829,15 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4420,70 +4849,70 @@
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G106" s="1">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G107" s="1">
         <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H108" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F109" t="s">
         <v>33</v>
@@ -4492,21 +4921,21 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F110" t="s">
         <v>45</v>
@@ -4515,44 +4944,44 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F112" t="s">
         <v>33</v>
@@ -4561,21 +4990,21 @@
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F113" t="s">
         <v>45</v>
@@ -4584,15 +5013,15 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" hidden="1" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -4601,15 +5030,15 @@
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -4621,15 +5050,15 @@
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" hidden="1" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4638,21 +5067,21 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G116" s="1">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -4664,35 +5093,35 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H118" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" hidden="1" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -4704,27 +5133,27 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G119" s="1">
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F120" t="s">
         <v>33</v>
@@ -4733,38 +5162,38 @@
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E121">
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H121" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4773,18 +5202,18 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H122" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="123" hidden="1" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -4793,15 +5222,15 @@
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" hidden="1" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -4810,35 +5239,35 @@
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H125" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="126" hidden="1" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4853,15 +5282,15 @@
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4876,15 +5305,15 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" hidden="1" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -4899,55 +5328,55 @@
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E129">
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E130">
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" hidden="1" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -4962,21 +5391,21 @@
         <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F132" t="s">
         <v>33</v>
@@ -4985,32 +5414,32 @@
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" hidden="1" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H133" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -5025,32 +5454,32 @@
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H135" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -5065,98 +5494,98 @@
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F137" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H137" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H138" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G139" s="1">
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E140">
         <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -5171,15 +5600,15 @@
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="142" hidden="1" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5188,18 +5617,18 @@
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H142" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" hidden="1" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5208,21 +5637,21 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G143" s="1">
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -5231,15 +5660,15 @@
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -5254,15 +5683,15 @@
         <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="146" hidden="1" spans="1:8">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -5271,41 +5700,41 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" hidden="1" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F147" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G147" s="1">
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" spans="1:8">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5314,44 +5743,61 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H148" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" spans="1:8">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="150" hidden="1" spans="1:8">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H150" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F151" t="s">
         <v>33</v>
@@ -5360,15 +5806,15 @@
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:8">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -5377,84 +5823,84 @@
         <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:8">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F153" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G153" s="1">
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:8">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F154" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H154" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G155" s="1">
         <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" hidden="1" spans="1:8">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -5466,66 +5912,1436 @@
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="G156" s="1">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="157" hidden="1" spans="1:8">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E157">
         <v>4</v>
       </c>
       <c r="F157" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H157" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" hidden="1" spans="1:8">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F158" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G158" s="1">
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" hidden="1" spans="1:8">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="H159" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" hidden="1" spans="1:8">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>376</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>48</v>
+      </c>
+      <c r="H160" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" hidden="1" spans="1:8">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>378</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="162" hidden="1" spans="1:8">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>380</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>138</v>
+      </c>
+      <c r="F162" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" s="1">
+        <v>4</v>
+      </c>
+      <c r="H162" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="163" hidden="1" spans="1:8">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>382</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>48</v>
+      </c>
+      <c r="H163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164" hidden="1" spans="1:8">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>384</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>118</v>
+      </c>
+      <c r="F164" t="s">
+        <v>245</v>
+      </c>
+      <c r="H164" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="165" hidden="1" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>386</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+      <c r="H165" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="166" hidden="1" spans="1:8">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>388</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" hidden="1" spans="1:8">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>390</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>105</v>
+      </c>
+      <c r="H167" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" hidden="1" spans="1:8">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>392</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>100</v>
+      </c>
+      <c r="H168" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="169" hidden="1" spans="1:8">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>394</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>138</v>
+      </c>
+      <c r="F169" t="s">
+        <v>88</v>
+      </c>
+      <c r="H169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" hidden="1" spans="1:8">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" hidden="1" spans="1:8">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>398</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>91</v>
+      </c>
+      <c r="F171" t="s">
+        <v>360</v>
+      </c>
+      <c r="G171" s="1">
+        <v>6</v>
+      </c>
+      <c r="H171" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="172" hidden="1" spans="1:8">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>400</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>250</v>
+      </c>
+      <c r="F172" t="s">
+        <v>401</v>
+      </c>
+      <c r="H172" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" hidden="1" spans="1:8">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>403</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>138</v>
+      </c>
+      <c r="F173" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" s="1">
+        <v>6</v>
+      </c>
+      <c r="H173" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" hidden="1" spans="1:8">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>88</v>
+      </c>
+      <c r="H174" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" hidden="1" spans="1:8">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>407</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+      <c r="F175" t="s">
+        <v>408</v>
+      </c>
+      <c r="H175" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="176" hidden="1" spans="1:8">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>410</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>118</v>
+      </c>
+      <c r="F176" t="s">
+        <v>88</v>
+      </c>
+      <c r="H176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" hidden="1" spans="1:8">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>118</v>
+      </c>
+      <c r="F177" t="s">
+        <v>88</v>
+      </c>
+      <c r="H177" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="178" hidden="1" spans="1:8">
+      <c r="A178">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>414</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="179" hidden="1" spans="1:8">
+      <c r="A179">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>416</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" t="s">
+        <v>245</v>
+      </c>
+      <c r="H179" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" hidden="1" spans="1:8">
+      <c r="A180">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>418</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>94</v>
+      </c>
+      <c r="F180" t="s">
+        <v>95</v>
+      </c>
+      <c r="G180" s="1">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="181" hidden="1" spans="1:8">
+      <c r="A181">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>420</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>232</v>
+      </c>
+      <c r="F181" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="1">
+        <v>6</v>
+      </c>
+      <c r="H181" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" hidden="1" customHeight="1" spans="1:8">
+      <c r="A182">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>422</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" t="s">
+        <v>207</v>
+      </c>
+      <c r="H182" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" hidden="1" spans="1:8">
+      <c r="A183">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>424</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>225</v>
+      </c>
+      <c r="F183" t="s">
+        <v>425</v>
+      </c>
+      <c r="H183" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" hidden="1" spans="1:8">
+      <c r="A184">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>427</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>225</v>
+      </c>
+      <c r="F184" t="s">
+        <v>33</v>
+      </c>
+      <c r="G184" s="1">
+        <v>5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="185" hidden="1" spans="1:8">
+      <c r="A185">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>429</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" t="s">
+        <v>133</v>
+      </c>
+      <c r="H185" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="186" hidden="1" spans="1:8">
+      <c r="A186">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
+        <v>88</v>
+      </c>
+      <c r="H186" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="187" hidden="1" spans="1:8">
+      <c r="A187">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>433</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+      <c r="G187" s="1">
+        <v>6</v>
+      </c>
+      <c r="H187" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="188" hidden="1" spans="1:8">
+      <c r="A188">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>118</v>
+      </c>
+      <c r="F188" t="s">
+        <v>88</v>
+      </c>
+      <c r="H188" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="189" hidden="1" spans="1:8">
+      <c r="A189">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>437</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="190" hidden="1" spans="1:8">
+      <c r="A190">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="191" hidden="1" spans="1:8">
+      <c r="A191">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>441</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>329</v>
+      </c>
+      <c r="H191" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" hidden="1" spans="1:8">
+      <c r="A192">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>29</v>
+      </c>
+      <c r="F192" t="s">
+        <v>444</v>
+      </c>
+      <c r="H192" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="193" hidden="1" spans="1:8">
+      <c r="A193">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>138</v>
+      </c>
+      <c r="F193" t="s">
+        <v>33</v>
+      </c>
+      <c r="G193" s="1">
+        <v>6</v>
+      </c>
+      <c r="H193" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="194" hidden="1" spans="1:8">
+      <c r="A194">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>448</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" s="1">
+        <v>6</v>
+      </c>
+      <c r="H194" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" hidden="1" spans="1:8">
+      <c r="A195">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>450</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
+        <v>88</v>
+      </c>
+      <c r="H195" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="196" hidden="1" spans="1:8">
+      <c r="A196">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>452</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>94</v>
+      </c>
+      <c r="F196" t="s">
+        <v>45</v>
+      </c>
+      <c r="G196" s="1">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="197" hidden="1" spans="1:8">
+      <c r="A197">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>454</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197" t="s">
+        <v>369</v>
+      </c>
+      <c r="H197" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="198" hidden="1" spans="1:8">
+      <c r="A198">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>456</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+      <c r="F198" t="s">
+        <v>88</v>
+      </c>
+      <c r="H198" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" hidden="1" spans="1:8">
+      <c r="A199">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>118</v>
+      </c>
+      <c r="F199" t="s">
+        <v>80</v>
+      </c>
+      <c r="H199" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="200" hidden="1" spans="1:8">
+      <c r="A200">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>460</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>29</v>
+      </c>
+      <c r="F200" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2</v>
+      </c>
+      <c r="H200" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="201" hidden="1" spans="1:8">
+      <c r="A201">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201" t="s">
+        <v>88</v>
+      </c>
+      <c r="H201" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="202" hidden="1" spans="1:8">
+      <c r="A202">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>463</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>118</v>
+      </c>
+      <c r="F202" t="s">
+        <v>88</v>
+      </c>
+      <c r="H202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" hidden="1" spans="1:8">
+      <c r="A203">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>464</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s">
+        <v>161</v>
+      </c>
+      <c r="E203">
+        <v>8</v>
+      </c>
+      <c r="H203" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="204" hidden="1" spans="1:8">
+      <c r="A204">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>466</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>118</v>
+      </c>
+      <c r="F204" t="s">
+        <v>88</v>
+      </c>
+      <c r="H204" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="205" hidden="1" spans="1:8">
+      <c r="A205">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>468</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" t="s">
+        <v>88</v>
+      </c>
+      <c r="H205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" hidden="1" spans="1:8">
+      <c r="A206">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>470</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="207" hidden="1" spans="1:8">
+      <c r="A207">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>472</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>225</v>
+      </c>
+      <c r="F207" t="s">
+        <v>245</v>
+      </c>
+      <c r="H207" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" hidden="1" spans="1:8">
+      <c r="A208">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>474</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>94</v>
+      </c>
+      <c r="F208" t="s">
+        <v>475</v>
+      </c>
+      <c r="H208" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" hidden="1" spans="1:8">
+      <c r="A209">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>477</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>232</v>
+      </c>
+      <c r="F209" t="s">
+        <v>105</v>
+      </c>
+      <c r="H209" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="210" hidden="1" spans="1:8">
+      <c r="A210">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>479</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>480</v>
+      </c>
+      <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" s="1">
+        <v>6</v>
+      </c>
+      <c r="H210" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="211" hidden="1" spans="1:8">
+      <c r="A211">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>482</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>250</v>
+      </c>
+      <c r="E211">
+        <v>8</v>
+      </c>
+      <c r="H211" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" hidden="1" spans="1:8">
+      <c r="A212">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>484</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>214</v>
+      </c>
+      <c r="F212" t="s">
+        <v>83</v>
+      </c>
+      <c r="H212" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="213" hidden="1" spans="1:8">
+      <c r="A213">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>62</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s">
+        <v>72</v>
+      </c>
+      <c r="G213" s="1">
+        <v>4</v>
+      </c>
+      <c r="H213" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="214" hidden="1" spans="1:8">
+      <c r="A214">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>488</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="1">
+        <v>5</v>
+      </c>
+      <c r="H214" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="215" hidden="1" spans="1:8">
+      <c r="A215">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>490</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" t="s">
+        <v>105</v>
+      </c>
+      <c r="H215" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="216" hidden="1" spans="1:8">
+      <c r="A216">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>492</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
+        <v>54</v>
+      </c>
+      <c r="H216" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="217" hidden="1" spans="1:8">
+      <c r="A217">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>494</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" t="s">
+        <v>88</v>
+      </c>
+      <c r="H217" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="218" hidden="1" spans="1:8">
+      <c r="A218">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>496</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>62</v>
+      </c>
+      <c r="F218" t="s">
+        <v>475</v>
+      </c>
+      <c r="H218" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="219" hidden="1" spans="1:8">
+      <c r="A219">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>498</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>232</v>
+      </c>
+      <c r="F219" t="s">
+        <v>45</v>
+      </c>
+      <c r="G219" s="1">
+        <v>6</v>
+      </c>
+      <c r="H219" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="220" hidden="1" spans="1:8">
+      <c r="A220">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>500</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>94</v>
+      </c>
+      <c r="F220" t="s">
+        <v>23</v>
+      </c>
+      <c r="G220" s="1">
+        <v>6</v>
+      </c>
+      <c r="H220" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" hidden="1" spans="1:8">
+      <c r="A221">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>502</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>118</v>
+      </c>
+      <c r="F221" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="222" hidden="1" spans="1:8">
+      <c r="A222">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>504</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" t="s">
+        <v>88</v>
+      </c>
+      <c r="H222" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="223" hidden="1" spans="1:8">
+      <c r="A223">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>506</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>48</v>
+      </c>
+      <c r="H223" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="224" hidden="1" spans="1:8">
+      <c r="A224">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>508</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>138</v>
+      </c>
+      <c r="E224">
+        <v>4</v>
+      </c>
+      <c r="F224" t="s">
+        <v>72</v>
+      </c>
+      <c r="H224" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="225" hidden="1" spans="1:8">
+      <c r="A225">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>510</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>154</v>
+      </c>
+      <c r="H225" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A158">
+  <conditionalFormatting sqref="A2:A225">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B158">
+  <conditionalFormatting sqref="B2:B225">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
